--- a/mbs-perturbation/chain/welm/chain_welm_rbf_results.xlsx
+++ b/mbs-perturbation/chain/welm/chain_welm_rbf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9829059829059829</v>
+        <v>0.92018779342723</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4502164502164502</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.461038961038961</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4739130434782609</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9339622641509434</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.986291772128682</v>
+        <v>0.9312605190893789</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4726858648597778</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
